--- a/Project-Tracking/Work Breakdown Structure/HRMS - WBS.xlsx
+++ b/Project-Tracking/Work Breakdown Structure/HRMS - WBS.xlsx
@@ -21,6 +21,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nath, Apoorva</author>
+  </authors>
+  <commentList>
+    <comment ref="C74" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nath, Apoorva:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,9 +103,6 @@
   </si>
   <si>
     <t>HRMS</t>
-  </si>
-  <si>
-    <t>Add Employee</t>
   </si>
   <si>
     <t>Analysis</t>
@@ -149,18 +180,6 @@
     <t>Total Actual Hrs:</t>
   </si>
   <si>
-    <t>Search Employee</t>
-  </si>
-  <si>
-    <t>Update Employee</t>
-  </si>
-  <si>
-    <t>Delete Employee</t>
-  </si>
-  <si>
-    <t>Display Employee</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -190,6 +209,21 @@
   <si>
     <t>Allauddin</t>
   </si>
+  <si>
+    <t>Delete User, Project, Skill, Category and Civil Status</t>
+  </si>
+  <si>
+    <t>Display User, Project, Skill, Category and Civil Status</t>
+  </si>
+  <si>
+    <t>Search User, Project, Skill, Category and Civil Status</t>
+  </si>
+  <si>
+    <t>Add User, Project, Skill, Category and Civil Status</t>
+  </si>
+  <si>
+    <t>Update User, Project, Skill, Category and Civil Status</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +261,19 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -313,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -360,19 +407,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -680,18 +736,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146:E170"/>
+    <sheetView tabSelected="1" topLeftCell="B151" workbookViewId="0">
+      <selection activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="25" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -754,14 +810,14 @@
       <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="12">
         <v>1</v>
@@ -782,7 +838,7 @@
         <v>43413</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -790,10 +846,10 @@
     <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="15">
         <v>3</v>
@@ -814,7 +870,7 @@
         <v>43413</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -822,10 +878,10 @@
     <row r="4" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="15">
         <v>2</v>
@@ -846,7 +902,7 @@
         <v>43413</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -854,10 +910,10 @@
     <row r="5" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="15">
         <v>1</v>
@@ -878,7 +934,7 @@
         <v>43413</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -886,12 +942,12 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="16">
         <v>1.5</v>
@@ -912,7 +968,7 @@
         <v>43416</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -920,10 +976,10 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="32"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="16">
         <v>1.5</v>
@@ -944,7 +1000,7 @@
         <v>43416</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -952,10 +1008,10 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -976,7 +1032,7 @@
         <v>43416</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -984,10 +1040,10 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
@@ -1008,7 +1064,7 @@
         <v>43416</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -1016,10 +1072,10 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -1040,7 +1096,7 @@
         <v>43416</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -1048,10 +1104,10 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -1072,7 +1128,7 @@
         <v>43416</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -1080,12 +1136,12 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="F12" s="10">
         <v>15</v>
@@ -1106,7 +1162,7 @@
         <v>43417</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -1114,10 +1170,10 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -1138,7 +1194,7 @@
         <v>43417</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -1146,10 +1202,10 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="36"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -1170,7 +1226,7 @@
         <v>43417</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -1178,10 +1234,10 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="36"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -1202,7 +1258,7 @@
         <v>43417</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -1210,10 +1266,10 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="36"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="10">
         <v>0.5</v>
@@ -1234,7 +1290,7 @@
         <v>43418</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
@@ -1242,10 +1298,10 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="10">
         <v>0.5</v>
@@ -1266,7 +1322,7 @@
         <v>43418</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -1274,10 +1330,10 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="36"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="10">
         <v>0.5</v>
@@ -1298,7 +1354,7 @@
         <v>43418</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
@@ -1306,10 +1362,10 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
@@ -1330,7 +1386,7 @@
         <v>43418</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
@@ -1338,10 +1394,10 @@
     <row r="20" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="10">
         <v>1.5</v>
@@ -1362,7 +1418,7 @@
         <v>43418</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -1370,10 +1426,10 @@
     <row r="21" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="10">
         <v>0.5</v>
@@ -1394,7 +1450,7 @@
         <v>43418</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
@@ -1402,10 +1458,10 @@
     <row r="22" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="36"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="10">
         <v>1</v>
@@ -1426,7 +1482,7 @@
         <v>43418</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -1434,10 +1490,10 @@
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="10">
         <v>0.5</v>
@@ -1458,7 +1514,7 @@
         <v>43418</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -1466,10 +1522,10 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="24"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="19"/>
       <c r="E24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="10">
         <f>SUM(F2:F23)</f>
@@ -1477,7 +1533,7 @@
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="10">
         <f>SUM(I2:I23)</f>
@@ -1492,7 +1548,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="25"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -1512,35 +1568,35 @@
       <c r="B26" s="9">
         <v>2</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="28" t="s">
+      <c r="C26" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <v>43413</v>
+      </c>
+      <c r="H26" s="13">
+        <v>43413</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13">
+        <v>43413</v>
+      </c>
+      <c r="K26" s="13">
+        <v>43413</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="F26" s="12">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13">
-        <v>43413</v>
-      </c>
-      <c r="H26" s="13">
-        <v>43413</v>
-      </c>
-      <c r="I26" s="12">
-        <v>1</v>
-      </c>
-      <c r="J26" s="13">
-        <v>43413</v>
-      </c>
-      <c r="K26" s="13">
-        <v>43413</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
@@ -1548,10 +1604,10 @@
     <row r="27" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="15">
         <v>3</v>
@@ -1572,7 +1628,7 @@
         <v>43413</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
@@ -1580,10 +1636,10 @@
     <row r="28" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="15">
         <v>2</v>
@@ -1604,7 +1660,7 @@
         <v>43413</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
@@ -1612,10 +1668,10 @@
     <row r="29" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" s="15">
         <v>1</v>
@@ -1636,7 +1692,7 @@
         <v>43413</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
@@ -1644,12 +1700,12 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="F30" s="16">
         <v>1.5</v>
@@ -1670,7 +1726,7 @@
         <v>43416</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
@@ -1678,10 +1734,10 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="32"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="16">
         <v>1.5</v>
@@ -1702,7 +1758,7 @@
         <v>43416</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
@@ -1710,10 +1766,10 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" s="15">
         <v>1</v>
@@ -1734,7 +1790,7 @@
         <v>43416</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -1742,10 +1798,10 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="33"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="15">
         <v>1</v>
@@ -1766,7 +1822,7 @@
         <v>43416</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
@@ -1774,10 +1830,10 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="33"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" s="15">
         <v>1</v>
@@ -1798,7 +1854,7 @@
         <v>43416</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
@@ -1806,10 +1862,10 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" s="15">
         <v>1</v>
@@ -1830,7 +1886,7 @@
         <v>43416</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
@@ -1838,12 +1894,12 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="35" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="F36" s="10">
         <v>15</v>
@@ -1864,7 +1920,7 @@
         <v>43417</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
@@ -1872,10 +1928,10 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="36"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" s="10">
         <v>1</v>
@@ -1896,7 +1952,7 @@
         <v>43417</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
@@ -1904,10 +1960,10 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="36"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" s="10">
         <v>1</v>
@@ -1928,7 +1984,7 @@
         <v>43417</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
@@ -1936,10 +1992,10 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="36"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F39" s="10">
         <v>1</v>
@@ -1960,7 +2016,7 @@
         <v>43417</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
@@ -1968,10 +2024,10 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" s="10">
         <v>0.5</v>
@@ -1992,7 +2048,7 @@
         <v>43418</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -2000,10 +2056,10 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="36"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F41" s="10">
         <v>0.5</v>
@@ -2024,7 +2080,7 @@
         <v>43418</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -2032,10 +2088,10 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="36"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" s="10">
         <v>0.5</v>
@@ -2056,7 +2112,7 @@
         <v>43418</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
@@ -2064,10 +2120,10 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="36"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" s="10">
         <v>1</v>
@@ -2088,7 +2144,7 @@
         <v>43418</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
@@ -2096,10 +2152,10 @@
     <row r="44" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="36"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" s="10">
         <v>1.5</v>
@@ -2120,7 +2176,7 @@
         <v>43418</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
@@ -2128,10 +2184,10 @@
     <row r="45" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="36"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" s="10">
         <v>0.5</v>
@@ -2152,7 +2208,7 @@
         <v>43418</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
@@ -2160,10 +2216,10 @@
     <row r="46" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="36"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F46" s="10">
         <v>1</v>
@@ -2184,7 +2240,7 @@
         <v>43418</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -2192,10 +2248,10 @@
     <row r="47" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="37"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" s="10">
         <v>0.5</v>
@@ -2216,7 +2272,7 @@
         <v>43418</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
@@ -2224,10 +2280,10 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="24"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="19"/>
       <c r="E48" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" s="10">
         <f>SUM(F26:F47)</f>
@@ -2237,7 +2293,7 @@
         <v>43427</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I48" s="10">
         <f>SUM(I26:I47)</f>
@@ -2252,7 +2308,7 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="20"/>
-      <c r="C49" s="25"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
@@ -2272,35 +2328,35 @@
       <c r="B50" s="9">
         <v>3</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="28" t="s">
+      <c r="C50" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="F50" s="12">
+        <v>1</v>
+      </c>
+      <c r="G50" s="13">
+        <v>43413</v>
+      </c>
+      <c r="H50" s="13">
+        <v>43413</v>
+      </c>
+      <c r="I50" s="12">
+        <v>1</v>
+      </c>
+      <c r="J50" s="13">
+        <v>43413</v>
+      </c>
+      <c r="K50" s="13">
+        <v>43413</v>
+      </c>
+      <c r="L50" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="F50" s="12">
-        <v>1</v>
-      </c>
-      <c r="G50" s="13">
-        <v>43413</v>
-      </c>
-      <c r="H50" s="13">
-        <v>43413</v>
-      </c>
-      <c r="I50" s="12">
-        <v>1</v>
-      </c>
-      <c r="J50" s="13">
-        <v>43413</v>
-      </c>
-      <c r="K50" s="13">
-        <v>43413</v>
-      </c>
-      <c r="L50" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
@@ -2308,10 +2364,10 @@
     <row r="51" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="29"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51" s="15">
         <v>3</v>
@@ -2332,7 +2388,7 @@
         <v>43413</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -2340,10 +2396,10 @@
     <row r="52" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="29"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F52" s="15">
         <v>2</v>
@@ -2364,7 +2420,7 @@
         <v>43413</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -2372,10 +2428,10 @@
     <row r="53" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="30"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53" s="15">
         <v>1</v>
@@ -2396,7 +2452,7 @@
         <v>43413</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
@@ -2404,12 +2460,12 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="31" t="s">
+      <c r="C54" s="27"/>
+      <c r="D54" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="F54" s="16">
         <v>1.5</v>
@@ -2430,7 +2486,7 @@
         <v>43416</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
@@ -2438,10 +2494,10 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="32"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="35"/>
       <c r="E55" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F55" s="16">
         <v>1.5</v>
@@ -2462,7 +2518,7 @@
         <v>43416</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
@@ -2470,10 +2526,10 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="32"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="35"/>
       <c r="E56" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F56" s="15">
         <v>1</v>
@@ -2494,7 +2550,7 @@
         <v>43416</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -2502,10 +2558,10 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="33"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F57" s="15">
         <v>1</v>
@@ -2526,7 +2582,7 @@
         <v>43416</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
@@ -2534,10 +2590,10 @@
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="33"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="36"/>
       <c r="E58" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F58" s="15">
         <v>1</v>
@@ -2558,7 +2614,7 @@
         <v>43416</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
@@ -2566,10 +2622,10 @@
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="34"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="37"/>
       <c r="E59" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F59" s="15">
         <v>1</v>
@@ -2590,7 +2646,7 @@
         <v>43416</v>
       </c>
       <c r="L59" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
@@ -2598,12 +2654,12 @@
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="35" t="s">
+      <c r="C60" s="27"/>
+      <c r="D60" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="F60" s="10">
         <v>15</v>
@@ -2624,7 +2680,7 @@
         <v>43417</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -2632,10 +2688,10 @@
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="36"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F61" s="10">
         <v>1</v>
@@ -2656,7 +2712,7 @@
         <v>43417</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
@@ -2664,10 +2720,10 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="9"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="36"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" s="10">
         <v>1</v>
@@ -2688,7 +2744,7 @@
         <v>43417</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
@@ -2696,10 +2752,10 @@
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="36"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="39"/>
       <c r="E63" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F63" s="10">
         <v>1</v>
@@ -2720,7 +2776,7 @@
         <v>43417</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
@@ -2728,10 +2784,10 @@
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="36"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="39"/>
       <c r="E64" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" s="10">
         <v>0.5</v>
@@ -2752,7 +2808,7 @@
         <v>43418</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
@@ -2760,10 +2816,10 @@
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="9"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="36"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F65" s="10">
         <v>0.5</v>
@@ -2784,7 +2840,7 @@
         <v>43418</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
@@ -2792,10 +2848,10 @@
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="36"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="39"/>
       <c r="E66" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66" s="10">
         <v>0.5</v>
@@ -2816,7 +2872,7 @@
         <v>43418</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
@@ -2824,10 +2880,10 @@
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="36"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="39"/>
       <c r="E67" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" s="10">
         <v>1</v>
@@ -2848,7 +2904,7 @@
         <v>43418</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
@@ -2856,10 +2912,10 @@
     <row r="68" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="9"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="36"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F68" s="10">
         <v>1.5</v>
@@ -2880,7 +2936,7 @@
         <v>43418</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
@@ -2888,10 +2944,10 @@
     <row r="69" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="9"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="36"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="39"/>
       <c r="E69" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F69" s="10">
         <v>0.5</v>
@@ -2912,7 +2968,7 @@
         <v>43418</v>
       </c>
       <c r="L69" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
@@ -2920,10 +2976,10 @@
     <row r="70" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="36"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="39"/>
       <c r="E70" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" s="10">
         <v>1</v>
@@ -2944,7 +3000,7 @@
         <v>43418</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
@@ -2952,10 +3008,10 @@
     <row r="71" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="37"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="40"/>
       <c r="E71" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F71" s="10">
         <v>0.5</v>
@@ -2976,7 +3032,7 @@
         <v>43418</v>
       </c>
       <c r="L71" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
@@ -2984,10 +3040,10 @@
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="24"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="19"/>
       <c r="E72" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F72" s="10">
         <f>SUM(F50:F71)</f>
@@ -2997,7 +3053,7 @@
         <v>43421</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I72" s="10">
         <f>SUM(I50:I71)</f>
@@ -3012,7 +3068,7 @@
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="20"/>
-      <c r="C73" s="25"/>
+      <c r="C73" s="24"/>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
       <c r="F73" s="21"/>
@@ -3032,35 +3088,35 @@
       <c r="B74" s="9">
         <v>4</v>
       </c>
-      <c r="C74" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="28" t="s">
+      <c r="C74" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="F74" s="12">
+        <v>1</v>
+      </c>
+      <c r="G74" s="13">
+        <v>43413</v>
+      </c>
+      <c r="H74" s="13">
+        <v>43413</v>
+      </c>
+      <c r="I74" s="12">
+        <v>1</v>
+      </c>
+      <c r="J74" s="13">
+        <v>43413</v>
+      </c>
+      <c r="K74" s="13">
+        <v>43413</v>
+      </c>
+      <c r="L74" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="F74" s="12">
-        <v>1</v>
-      </c>
-      <c r="G74" s="13">
-        <v>43413</v>
-      </c>
-      <c r="H74" s="13">
-        <v>43413</v>
-      </c>
-      <c r="I74" s="12">
-        <v>1</v>
-      </c>
-      <c r="J74" s="13">
-        <v>43413</v>
-      </c>
-      <c r="K74" s="13">
-        <v>43413</v>
-      </c>
-      <c r="L74" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
@@ -3068,10 +3124,10 @@
     <row r="75" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="9"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="29"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F75" s="15">
         <v>3</v>
@@ -3092,7 +3148,7 @@
         <v>43413</v>
       </c>
       <c r="L75" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
@@ -3100,10 +3156,10 @@
     <row r="76" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="9"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="29"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F76" s="15">
         <v>2</v>
@@ -3124,7 +3180,7 @@
         <v>43413</v>
       </c>
       <c r="L76" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
@@ -3132,10 +3188,10 @@
     <row r="77" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="9"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="30"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="33"/>
       <c r="E77" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F77" s="15">
         <v>1</v>
@@ -3156,7 +3212,7 @@
         <v>43413</v>
       </c>
       <c r="L77" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
@@ -3164,12 +3220,12 @@
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="9"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="31" t="s">
+      <c r="C78" s="27"/>
+      <c r="D78" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="F78" s="16">
         <v>1.5</v>
@@ -3190,7 +3246,7 @@
         <v>43416</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
@@ -3198,10 +3254,10 @@
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="32"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F79" s="16">
         <v>1.5</v>
@@ -3222,7 +3278,7 @@
         <v>43416</v>
       </c>
       <c r="L79" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
@@ -3230,10 +3286,10 @@
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="9"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="32"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F80" s="15">
         <v>1</v>
@@ -3254,7 +3310,7 @@
         <v>43416</v>
       </c>
       <c r="L80" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
@@ -3262,10 +3318,10 @@
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="9"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="33"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="36"/>
       <c r="E81" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F81" s="15">
         <v>1</v>
@@ -3286,7 +3342,7 @@
         <v>43416</v>
       </c>
       <c r="L81" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
@@ -3294,10 +3350,10 @@
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="9"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="33"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="36"/>
       <c r="E82" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" s="15">
         <v>1</v>
@@ -3318,7 +3374,7 @@
         <v>43416</v>
       </c>
       <c r="L82" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
@@ -3326,10 +3382,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="34"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="37"/>
       <c r="E83" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F83" s="15">
         <v>1</v>
@@ -3350,7 +3406,7 @@
         <v>43416</v>
       </c>
       <c r="L83" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
@@ -3358,12 +3414,12 @@
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="9"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="35" t="s">
+      <c r="C84" s="27"/>
+      <c r="D84" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="F84" s="10">
         <v>15</v>
@@ -3384,7 +3440,7 @@
         <v>43417</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
@@ -3392,10 +3448,10 @@
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="9"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="36"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="39"/>
       <c r="E85" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F85" s="10">
         <v>1</v>
@@ -3416,7 +3472,7 @@
         <v>43417</v>
       </c>
       <c r="L85" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
@@ -3424,10 +3480,10 @@
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="9"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="36"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="39"/>
       <c r="E86" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F86" s="10">
         <v>1</v>
@@ -3448,7 +3504,7 @@
         <v>43417</v>
       </c>
       <c r="L86" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
@@ -3456,10 +3512,10 @@
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="9"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="36"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="39"/>
       <c r="E87" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F87" s="10">
         <v>1</v>
@@ -3480,7 +3536,7 @@
         <v>43417</v>
       </c>
       <c r="L87" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
@@ -3488,10 +3544,10 @@
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="9"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="36"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="39"/>
       <c r="E88" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F88" s="10">
         <v>0.5</v>
@@ -3512,7 +3568,7 @@
         <v>43418</v>
       </c>
       <c r="L88" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
@@ -3520,10 +3576,10 @@
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="9"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="36"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="39"/>
       <c r="E89" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F89" s="10">
         <v>0.5</v>
@@ -3544,7 +3600,7 @@
         <v>43418</v>
       </c>
       <c r="L89" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
@@ -3552,10 +3608,10 @@
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="9"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="36"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="39"/>
       <c r="E90" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F90" s="10">
         <v>0.5</v>
@@ -3576,7 +3632,7 @@
         <v>43418</v>
       </c>
       <c r="L90" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -3584,10 +3640,10 @@
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="36"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="39"/>
       <c r="E91" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F91" s="10">
         <v>1</v>
@@ -3608,7 +3664,7 @@
         <v>43418</v>
       </c>
       <c r="L91" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
@@ -3616,10 +3672,10 @@
     <row r="92" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="9"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="36"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="39"/>
       <c r="E92" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F92" s="10">
         <v>1.5</v>
@@ -3640,7 +3696,7 @@
         <v>43418</v>
       </c>
       <c r="L92" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
@@ -3648,10 +3704,10 @@
     <row r="93" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="36"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="39"/>
       <c r="E93" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F93" s="10">
         <v>0.5</v>
@@ -3672,7 +3728,7 @@
         <v>43418</v>
       </c>
       <c r="L93" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
@@ -3680,10 +3736,10 @@
     <row r="94" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="9"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="36"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="39"/>
       <c r="E94" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F94" s="10">
         <v>1</v>
@@ -3704,7 +3760,7 @@
         <v>43418</v>
       </c>
       <c r="L94" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
@@ -3712,10 +3768,10 @@
     <row r="95" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="9"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="37"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="40"/>
       <c r="E95" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F95" s="10">
         <v>0.5</v>
@@ -3736,7 +3792,7 @@
         <v>43418</v>
       </c>
       <c r="L95" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
@@ -3744,10 +3800,10 @@
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="9"/>
-      <c r="C96" s="24"/>
+      <c r="C96" s="28"/>
       <c r="D96" s="19"/>
       <c r="E96" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F96" s="10">
         <f>SUM(F74:F95)</f>
@@ -3757,7 +3813,7 @@
         <v>43415</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I96" s="10">
         <f>SUM(I74:I95)</f>
@@ -3772,7 +3828,7 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="20"/>
-      <c r="C97" s="25"/>
+      <c r="C97" s="24"/>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
@@ -3792,35 +3848,35 @@
       <c r="B98" s="9">
         <v>5</v>
       </c>
-      <c r="C98" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D98" s="28" t="s">
+      <c r="C98" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="F98" s="12">
+        <v>1</v>
+      </c>
+      <c r="G98" s="13">
+        <v>43413</v>
+      </c>
+      <c r="H98" s="13">
+        <v>43413</v>
+      </c>
+      <c r="I98" s="12">
+        <v>1</v>
+      </c>
+      <c r="J98" s="13">
+        <v>43413</v>
+      </c>
+      <c r="K98" s="13">
+        <v>43413</v>
+      </c>
+      <c r="L98" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="F98" s="12">
-        <v>1</v>
-      </c>
-      <c r="G98" s="13">
-        <v>43413</v>
-      </c>
-      <c r="H98" s="13">
-        <v>43413</v>
-      </c>
-      <c r="I98" s="12">
-        <v>1</v>
-      </c>
-      <c r="J98" s="13">
-        <v>43413</v>
-      </c>
-      <c r="K98" s="13">
-        <v>43413</v>
-      </c>
-      <c r="L98" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
@@ -3828,10 +3884,10 @@
     <row r="99" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="9"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="29"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="32"/>
       <c r="E99" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F99" s="15">
         <v>3</v>
@@ -3852,7 +3908,7 @@
         <v>43413</v>
       </c>
       <c r="L99" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
@@ -3860,10 +3916,10 @@
     <row r="100" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="9"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="29"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F100" s="15">
         <v>2</v>
@@ -3884,7 +3940,7 @@
         <v>43413</v>
       </c>
       <c r="L100" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
@@ -3892,10 +3948,10 @@
     <row r="101" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="9"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="30"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="33"/>
       <c r="E101" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F101" s="15">
         <v>1</v>
@@ -3916,7 +3972,7 @@
         <v>43413</v>
       </c>
       <c r="L101" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
@@ -3924,12 +3980,12 @@
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="9"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="31" t="s">
+      <c r="C102" s="27"/>
+      <c r="D102" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="F102" s="16">
         <v>1.5</v>
@@ -3950,7 +4006,7 @@
         <v>43416</v>
       </c>
       <c r="L102" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
@@ -3958,10 +4014,10 @@
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="9"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="32"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="35"/>
       <c r="E103" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F103" s="16">
         <v>1.5</v>
@@ -3982,7 +4038,7 @@
         <v>43416</v>
       </c>
       <c r="L103" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
@@ -3990,10 +4046,10 @@
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="9"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="32"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="35"/>
       <c r="E104" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F104" s="15">
         <v>1</v>
@@ -4014,7 +4070,7 @@
         <v>43416</v>
       </c>
       <c r="L104" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
@@ -4022,10 +4078,10 @@
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="9"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="33"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="36"/>
       <c r="E105" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F105" s="15">
         <v>1</v>
@@ -4046,7 +4102,7 @@
         <v>43416</v>
       </c>
       <c r="L105" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
@@ -4054,10 +4110,10 @@
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="9"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="33"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="36"/>
       <c r="E106" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F106" s="15">
         <v>1</v>
@@ -4078,7 +4134,7 @@
         <v>43416</v>
       </c>
       <c r="L106" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
@@ -4086,10 +4142,10 @@
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="9"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="34"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="37"/>
       <c r="E107" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F107" s="15">
         <v>1</v>
@@ -4110,7 +4166,7 @@
         <v>43416</v>
       </c>
       <c r="L107" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
@@ -4118,12 +4174,12 @@
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="9"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="35" t="s">
+      <c r="C108" s="27"/>
+      <c r="D108" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="F108" s="10">
         <v>15</v>
@@ -4144,7 +4200,7 @@
         <v>43417</v>
       </c>
       <c r="L108" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
@@ -4152,10 +4208,10 @@
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="9"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="36"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="39"/>
       <c r="E109" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F109" s="10">
         <v>1</v>
@@ -4176,7 +4232,7 @@
         <v>43417</v>
       </c>
       <c r="L109" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
@@ -4184,10 +4240,10 @@
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="9"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="36"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="39"/>
       <c r="E110" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F110" s="10">
         <v>1</v>
@@ -4208,7 +4264,7 @@
         <v>43417</v>
       </c>
       <c r="L110" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
@@ -4216,10 +4272,10 @@
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="9"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="36"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="39"/>
       <c r="E111" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F111" s="10">
         <v>1</v>
@@ -4240,7 +4296,7 @@
         <v>43417</v>
       </c>
       <c r="L111" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
@@ -4248,10 +4304,10 @@
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="9"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="36"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="39"/>
       <c r="E112" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F112" s="10">
         <v>0.5</v>
@@ -4272,7 +4328,7 @@
         <v>43418</v>
       </c>
       <c r="L112" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
@@ -4280,10 +4336,10 @@
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="9"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="36"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="39"/>
       <c r="E113" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F113" s="10">
         <v>0.5</v>
@@ -4304,7 +4360,7 @@
         <v>43418</v>
       </c>
       <c r="L113" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
@@ -4312,10 +4368,10 @@
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="9"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="36"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="39"/>
       <c r="E114" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F114" s="10">
         <v>0.5</v>
@@ -4336,7 +4392,7 @@
         <v>43418</v>
       </c>
       <c r="L114" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
@@ -4344,10 +4400,10 @@
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="9"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="36"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="39"/>
       <c r="E115" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F115" s="10">
         <v>1</v>
@@ -4368,7 +4424,7 @@
         <v>43418</v>
       </c>
       <c r="L115" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
@@ -4376,10 +4432,10 @@
     <row r="116" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="9"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="36"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="39"/>
       <c r="E116" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F116" s="10">
         <v>1.5</v>
@@ -4400,7 +4456,7 @@
         <v>43418</v>
       </c>
       <c r="L116" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
@@ -4408,10 +4464,10 @@
     <row r="117" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="36"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="39"/>
       <c r="E117" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F117" s="10">
         <v>0.5</v>
@@ -4432,7 +4488,7 @@
         <v>43418</v>
       </c>
       <c r="L117" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
@@ -4440,10 +4496,10 @@
     <row r="118" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="9"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="36"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="39"/>
       <c r="E118" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F118" s="10">
         <v>1</v>
@@ -4464,7 +4520,7 @@
         <v>43418</v>
       </c>
       <c r="L118" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
@@ -4472,10 +4528,10 @@
     <row r="119" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="9"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="37"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="40"/>
       <c r="E119" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F119" s="10">
         <v>0.5</v>
@@ -4496,7 +4552,7 @@
         <v>43418</v>
       </c>
       <c r="L119" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
@@ -4504,10 +4560,10 @@
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="9"/>
-      <c r="C120" s="24"/>
+      <c r="C120" s="28"/>
       <c r="D120" s="19"/>
       <c r="E120" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F120" s="10">
         <f>SUM(F98:F119)</f>
@@ -4517,7 +4573,7 @@
         <v>43409</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I120" s="10">
         <f>SUM(I98:I119)</f>
@@ -4532,7 +4588,7 @@
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="20"/>
-      <c r="C121" s="25"/>
+      <c r="C121" s="24"/>
       <c r="D121" s="21"/>
       <c r="E121" s="21"/>
       <c r="F121" s="21"/>
@@ -4552,35 +4608,35 @@
       <c r="B122" s="9">
         <v>6</v>
       </c>
-      <c r="C122" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D122" s="28" t="s">
+      <c r="C122" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="F122" s="12">
+        <v>1</v>
+      </c>
+      <c r="G122" s="13">
+        <v>43413</v>
+      </c>
+      <c r="H122" s="13">
+        <v>43413</v>
+      </c>
+      <c r="I122" s="12">
+        <v>1</v>
+      </c>
+      <c r="J122" s="13">
+        <v>43413</v>
+      </c>
+      <c r="K122" s="13">
+        <v>43413</v>
+      </c>
+      <c r="L122" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="F122" s="12">
-        <v>1</v>
-      </c>
-      <c r="G122" s="13">
-        <v>43413</v>
-      </c>
-      <c r="H122" s="13">
-        <v>43413</v>
-      </c>
-      <c r="I122" s="12">
-        <v>1</v>
-      </c>
-      <c r="J122" s="13">
-        <v>43413</v>
-      </c>
-      <c r="K122" s="13">
-        <v>43413</v>
-      </c>
-      <c r="L122" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
@@ -4588,10 +4644,10 @@
     <row r="123" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="9"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="29"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="32"/>
       <c r="E123" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F123" s="15">
         <v>3</v>
@@ -4612,7 +4668,7 @@
         <v>43413</v>
       </c>
       <c r="L123" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
@@ -4620,10 +4676,10 @@
     <row r="124" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="9"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="29"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="32"/>
       <c r="E124" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F124" s="15">
         <v>2</v>
@@ -4644,7 +4700,7 @@
         <v>43413</v>
       </c>
       <c r="L124" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
@@ -4652,10 +4708,10 @@
     <row r="125" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="9"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="30"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="33"/>
       <c r="E125" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F125" s="15">
         <v>1</v>
@@ -4676,7 +4732,7 @@
         <v>43413</v>
       </c>
       <c r="L125" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M125" s="10"/>
       <c r="N125" s="10"/>
@@ -4684,12 +4740,12 @@
     <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="9"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="31" t="s">
+      <c r="C126" s="27"/>
+      <c r="D126" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="F126" s="16">
         <v>1.5</v>
@@ -4710,7 +4766,7 @@
         <v>43416</v>
       </c>
       <c r="L126" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
@@ -4718,10 +4774,10 @@
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="9"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="32"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="35"/>
       <c r="E127" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F127" s="16">
         <v>1.5</v>
@@ -4742,7 +4798,7 @@
         <v>43416</v>
       </c>
       <c r="L127" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M127" s="10"/>
       <c r="N127" s="10"/>
@@ -4750,10 +4806,10 @@
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="9"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="32"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="35"/>
       <c r="E128" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F128" s="15">
         <v>1</v>
@@ -4774,7 +4830,7 @@
         <v>43416</v>
       </c>
       <c r="L128" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
@@ -4782,10 +4838,10 @@
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="9"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="33"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="36"/>
       <c r="E129" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F129" s="15">
         <v>1</v>
@@ -4806,7 +4862,7 @@
         <v>43416</v>
       </c>
       <c r="L129" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
@@ -4814,10 +4870,10 @@
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="9"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="33"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="36"/>
       <c r="E130" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F130" s="15">
         <v>1</v>
@@ -4838,7 +4894,7 @@
         <v>43416</v>
       </c>
       <c r="L130" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M130" s="10"/>
       <c r="N130" s="10"/>
@@ -4846,10 +4902,10 @@
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="9"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="34"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="37"/>
       <c r="E131" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F131" s="15">
         <v>1</v>
@@ -4870,7 +4926,7 @@
         <v>43416</v>
       </c>
       <c r="L131" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
@@ -4878,12 +4934,12 @@
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="9"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="35" t="s">
+      <c r="C132" s="27"/>
+      <c r="D132" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="F132" s="10">
         <v>15</v>
@@ -4904,7 +4960,7 @@
         <v>43417</v>
       </c>
       <c r="L132" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
@@ -4912,10 +4968,10 @@
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="9"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="36"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F133" s="10">
         <v>1</v>
@@ -4936,7 +4992,7 @@
         <v>43417</v>
       </c>
       <c r="L133" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
@@ -4944,10 +5000,10 @@
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="9"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="36"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F134" s="10">
         <v>1</v>
@@ -4968,7 +5024,7 @@
         <v>43417</v>
       </c>
       <c r="L134" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M134" s="10"/>
       <c r="N134" s="10"/>
@@ -4976,10 +5032,10 @@
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="9"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="36"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F135" s="10">
         <v>1</v>
@@ -5000,7 +5056,7 @@
         <v>43417</v>
       </c>
       <c r="L135" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M135" s="10"/>
       <c r="N135" s="10"/>
@@ -5008,10 +5064,10 @@
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="9"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="36"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F136" s="10">
         <v>0.5</v>
@@ -5032,7 +5088,7 @@
         <v>43418</v>
       </c>
       <c r="L136" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M136" s="10"/>
       <c r="N136" s="10"/>
@@ -5040,10 +5096,10 @@
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="9"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="36"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F137" s="10">
         <v>0.5</v>
@@ -5064,7 +5120,7 @@
         <v>43418</v>
       </c>
       <c r="L137" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M137" s="10"/>
       <c r="N137" s="10"/>
@@ -5072,10 +5128,10 @@
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="9"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="36"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F138" s="10">
         <v>0.5</v>
@@ -5096,7 +5152,7 @@
         <v>43418</v>
       </c>
       <c r="L138" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
@@ -5104,10 +5160,10 @@
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="9"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="36"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="39"/>
       <c r="E139" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F139" s="10">
         <v>1</v>
@@ -5128,7 +5184,7 @@
         <v>43418</v>
       </c>
       <c r="L139" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
@@ -5136,10 +5192,10 @@
     <row r="140" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="9"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="36"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="39"/>
       <c r="E140" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F140" s="10">
         <v>1.5</v>
@@ -5160,7 +5216,7 @@
         <v>43418</v>
       </c>
       <c r="L140" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
@@ -5168,10 +5224,10 @@
     <row r="141" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="9"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="36"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="39"/>
       <c r="E141" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F141" s="10">
         <v>0.5</v>
@@ -5192,7 +5248,7 @@
         <v>43418</v>
       </c>
       <c r="L141" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
@@ -5200,10 +5256,10 @@
     <row r="142" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="9"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="36"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="39"/>
       <c r="E142" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F142" s="10">
         <v>1</v>
@@ -5224,7 +5280,7 @@
         <v>43418</v>
       </c>
       <c r="L142" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
@@ -5232,10 +5288,10 @@
     <row r="143" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="9"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="37"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="40"/>
       <c r="E143" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F143" s="10">
         <v>0.5</v>
@@ -5256,7 +5312,7 @@
         <v>43418</v>
       </c>
       <c r="L143" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
@@ -5264,10 +5320,10 @@
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="9"/>
-      <c r="C144" s="24"/>
+      <c r="C144" s="28"/>
       <c r="D144" s="19"/>
       <c r="E144" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F144" s="10">
         <f>SUM(F122:F143)</f>
@@ -5277,7 +5333,7 @@
         <v>43433</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I144" s="10">
         <f>SUM(I122:I143)</f>
@@ -5292,7 +5348,7 @@
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="20"/>
-      <c r="C145" s="25"/>
+      <c r="C145" s="24"/>
       <c r="D145" s="21"/>
       <c r="E145" s="21"/>
       <c r="F145" s="21"/>
@@ -5312,35 +5368,35 @@
       <c r="B146" s="9">
         <v>7</v>
       </c>
-      <c r="C146" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D146" s="28" t="s">
+      <c r="C146" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="F146" s="12">
+        <v>1</v>
+      </c>
+      <c r="G146" s="13">
+        <v>43413</v>
+      </c>
+      <c r="H146" s="13">
+        <v>43413</v>
+      </c>
+      <c r="I146" s="12">
+        <v>1</v>
+      </c>
+      <c r="J146" s="13">
+        <v>43413</v>
+      </c>
+      <c r="K146" s="13">
+        <v>43413</v>
+      </c>
+      <c r="L146" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="F146" s="12">
-        <v>1</v>
-      </c>
-      <c r="G146" s="13">
-        <v>43413</v>
-      </c>
-      <c r="H146" s="13">
-        <v>43413</v>
-      </c>
-      <c r="I146" s="12">
-        <v>1</v>
-      </c>
-      <c r="J146" s="13">
-        <v>43413</v>
-      </c>
-      <c r="K146" s="13">
-        <v>43413</v>
-      </c>
-      <c r="L146" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="M146" s="10"/>
       <c r="N146" s="10"/>
@@ -5348,10 +5404,10 @@
     <row r="147" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="9"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="29"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="32"/>
       <c r="E147" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F147" s="15">
         <v>3</v>
@@ -5372,7 +5428,7 @@
         <v>43413</v>
       </c>
       <c r="L147" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
@@ -5380,10 +5436,10 @@
     <row r="148" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="9"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="29"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="32"/>
       <c r="E148" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F148" s="15">
         <v>2</v>
@@ -5404,7 +5460,7 @@
         <v>43413</v>
       </c>
       <c r="L148" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
@@ -5412,10 +5468,10 @@
     <row r="149" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="9"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="30"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="33"/>
       <c r="E149" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F149" s="15">
         <v>1</v>
@@ -5436,7 +5492,7 @@
         <v>43413</v>
       </c>
       <c r="L149" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M149" s="10"/>
       <c r="N149" s="10"/>
@@ -5444,12 +5500,12 @@
     <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="9"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="31" t="s">
+      <c r="C150" s="27"/>
+      <c r="D150" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="F150" s="16">
         <v>1.5</v>
@@ -5470,7 +5526,7 @@
         <v>43416</v>
       </c>
       <c r="L150" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M150" s="10"/>
       <c r="N150" s="10"/>
@@ -5478,10 +5534,10 @@
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="9"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="32"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="35"/>
       <c r="E151" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F151" s="16">
         <v>1.5</v>
@@ -5502,7 +5558,7 @@
         <v>43416</v>
       </c>
       <c r="L151" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M151" s="10"/>
       <c r="N151" s="10"/>
@@ -5510,10 +5566,10 @@
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="9"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="32"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="35"/>
       <c r="E152" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F152" s="15">
         <v>1</v>
@@ -5534,7 +5590,7 @@
         <v>43416</v>
       </c>
       <c r="L152" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
@@ -5542,10 +5598,10 @@
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="9"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="33"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="36"/>
       <c r="E153" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F153" s="15">
         <v>1</v>
@@ -5566,7 +5622,7 @@
         <v>43416</v>
       </c>
       <c r="L153" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
@@ -5574,10 +5630,10 @@
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="9"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="33"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="36"/>
       <c r="E154" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F154" s="15">
         <v>1</v>
@@ -5598,7 +5654,7 @@
         <v>43416</v>
       </c>
       <c r="L154" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M154" s="10"/>
       <c r="N154" s="10"/>
@@ -5606,10 +5662,10 @@
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="9"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="34"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="37"/>
       <c r="E155" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F155" s="15">
         <v>1</v>
@@ -5630,7 +5686,7 @@
         <v>43416</v>
       </c>
       <c r="L155" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M155" s="10"/>
       <c r="N155" s="10"/>
@@ -5638,12 +5694,12 @@
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="9"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="35" t="s">
+      <c r="C156" s="27"/>
+      <c r="D156" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="F156" s="10">
         <v>15</v>
@@ -5664,7 +5720,7 @@
         <v>43417</v>
       </c>
       <c r="L156" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M156" s="10"/>
       <c r="N156" s="10"/>
@@ -5672,10 +5728,10 @@
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="9"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="36"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="39"/>
       <c r="E157" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F157" s="10">
         <v>1</v>
@@ -5696,7 +5752,7 @@
         <v>43417</v>
       </c>
       <c r="L157" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M157" s="10"/>
       <c r="N157" s="10"/>
@@ -5704,10 +5760,10 @@
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="9"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="36"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="39"/>
       <c r="E158" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F158" s="10">
         <v>1</v>
@@ -5728,7 +5784,7 @@
         <v>43417</v>
       </c>
       <c r="L158" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M158" s="10"/>
       <c r="N158" s="10"/>
@@ -5736,10 +5792,10 @@
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="9"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="36"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="39"/>
       <c r="E159" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F159" s="10">
         <v>1</v>
@@ -5760,7 +5816,7 @@
         <v>43417</v>
       </c>
       <c r="L159" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M159" s="10"/>
       <c r="N159" s="10"/>
@@ -5768,10 +5824,10 @@
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="9"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="36"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="39"/>
       <c r="E160" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F160" s="10">
         <v>0.5</v>
@@ -5792,7 +5848,7 @@
         <v>43418</v>
       </c>
       <c r="L160" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M160" s="10"/>
       <c r="N160" s="10"/>
@@ -5800,10 +5856,10 @@
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="9"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="36"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="39"/>
       <c r="E161" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F161" s="10">
         <v>0.5</v>
@@ -5824,7 +5880,7 @@
         <v>43418</v>
       </c>
       <c r="L161" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M161" s="10"/>
       <c r="N161" s="10"/>
@@ -5832,10 +5888,10 @@
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="9"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="36"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="39"/>
       <c r="E162" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F162" s="10">
         <v>0.5</v>
@@ -5856,7 +5912,7 @@
         <v>43418</v>
       </c>
       <c r="L162" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M162" s="10"/>
       <c r="N162" s="10"/>
@@ -5864,10 +5920,10 @@
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="9"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="36"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="39"/>
       <c r="E163" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F163" s="10">
         <v>1</v>
@@ -5888,7 +5944,7 @@
         <v>43418</v>
       </c>
       <c r="L163" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M163" s="10"/>
       <c r="N163" s="10"/>
@@ -5896,10 +5952,10 @@
     <row r="164" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="9"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="36"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="39"/>
       <c r="E164" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F164" s="10">
         <v>1.5</v>
@@ -5920,7 +5976,7 @@
         <v>43418</v>
       </c>
       <c r="L164" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M164" s="10"/>
       <c r="N164" s="10"/>
@@ -5928,10 +5984,10 @@
     <row r="165" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="9"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="36"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="39"/>
       <c r="E165" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F165" s="10">
         <v>0.5</v>
@@ -5952,7 +6008,7 @@
         <v>43418</v>
       </c>
       <c r="L165" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M165" s="10"/>
       <c r="N165" s="10"/>
@@ -5960,10 +6016,10 @@
     <row r="166" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="9"/>
-      <c r="C166" s="24"/>
-      <c r="D166" s="36"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="39"/>
       <c r="E166" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F166" s="10">
         <v>1</v>
@@ -5984,7 +6040,7 @@
         <v>43418</v>
       </c>
       <c r="L166" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M166" s="10"/>
       <c r="N166" s="10"/>
@@ -5992,10 +6048,10 @@
     <row r="167" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="9"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="37"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="40"/>
       <c r="E167" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F167" s="10">
         <v>0.5</v>
@@ -6016,7 +6072,7 @@
         <v>43418</v>
       </c>
       <c r="L167" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M167" s="10"/>
       <c r="N167" s="10"/>
@@ -6024,10 +6080,10 @@
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="9"/>
-      <c r="C168" s="24"/>
+      <c r="C168" s="28"/>
       <c r="D168" s="19"/>
       <c r="E168" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F168" s="10">
         <f>SUM(F146:F167)</f>
@@ -6035,7 +6091,7 @@
       </c>
       <c r="G168" s="13"/>
       <c r="H168" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I168" s="10">
         <f>SUM(I146:I167)</f>
@@ -6050,30 +6106,30 @@
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="9"/>
-      <c r="C169" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D169" s="38"/>
+      <c r="C169" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D169" s="41"/>
       <c r="E169" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F169" s="10">
         <v>3</v>
       </c>
       <c r="G169" s="13">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="H169" s="13">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="I169" s="10">
         <v>4</v>
       </c>
       <c r="J169" s="13">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="K169" s="13">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="L169" s="14"/>
       <c r="M169" s="10"/>
@@ -6082,35 +6138,35 @@
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="19"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="38"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="41"/>
       <c r="E170" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F170" s="10">
         <v>1</v>
       </c>
       <c r="G170" s="13">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="H170" s="13">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="I170" s="10">
         <v>1</v>
       </c>
       <c r="J170" s="13">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="K170" s="13">
-        <v>43418</v>
+        <v>43419</v>
       </c>
       <c r="L170" s="14"/>
       <c r="M170" s="10"/>
       <c r="N170" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="30">
     <mergeCell ref="D84:D95"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D11"/>
@@ -6133,8 +6189,17 @@
     <mergeCell ref="D122:D125"/>
     <mergeCell ref="D126:D131"/>
     <mergeCell ref="D132:D143"/>
+    <mergeCell ref="C122:C144"/>
+    <mergeCell ref="C146:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C2:C24"/>
+    <mergeCell ref="C26:C48"/>
+    <mergeCell ref="C50:C72"/>
+    <mergeCell ref="C74:C96"/>
+    <mergeCell ref="C98:C120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>